--- a/Datasets/SalesByModel.xlsx
+++ b/Datasets/SalesByModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enc82\Documents\Team9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jae/Desktop/Team9/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D33BC-2B44-440D-ABB1-701F90D65E44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB50CB8-1D29-C443-A3A9-CF10A6626D69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE9278F7-9D50-47A1-B1CF-53BD5672653C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{FE9278F7-9D50-47A1-B1CF-53BD5672653C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t>Year</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Running total</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -587,13 +593,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -681,6 +698,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -997,25 +1016,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD29331F-6A79-49CF-AEF4-25437E190549}">
-  <dimension ref="A1:U114"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="2" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1137,7 @@
       </c>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>50559</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>9680</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>65630</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>16864</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>20985</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1493,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1563,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1598,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1613,7 +1631,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +1668,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1734,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1773,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1786,7 +1804,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="20" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1825,7 +1843,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1907,7 +1925,7 @@
       </c>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1995,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2020,7 +2038,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -2155,7 +2173,7 @@
       </c>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2202,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
@@ -2223,7 +2241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>5394</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>27195</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
@@ -2459,7 +2477,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
@@ -2496,7 +2514,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>10338</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>10766</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
@@ -2668,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -2711,7 +2729,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
@@ -2817,7 +2835,7 @@
         <v>22008</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
@@ -2860,7 +2878,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
@@ -2901,7 +2919,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -2946,7 +2964,7 @@
         <v>57474</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
@@ -2991,7 +3009,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="8"/>
     </row>
-    <row r="49" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
@@ -3030,7 +3048,7 @@
         <v>10221</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -3059,7 +3077,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A51" s="9" t="s">
         <v>50</v>
       </c>
@@ -3090,7 +3108,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="8"/>
     </row>
-    <row r="52" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A52" s="9" t="s">
         <v>51</v>
       </c>
@@ -3133,7 +3151,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A53" s="9" t="s">
         <v>52</v>
       </c>
@@ -3174,7 +3192,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A54" s="9" t="s">
         <v>53</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A55" s="9" t="s">
         <v>54</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
@@ -3301,7 +3319,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -3342,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="9" t="s">
         <v>57</v>
       </c>
@@ -3383,7 +3401,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
@@ -3418,7 +3436,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
@@ -3459,7 +3477,7 @@
       </c>
       <c r="U60" s="8"/>
     </row>
-    <row r="61" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
@@ -3496,7 +3514,7 @@
       </c>
       <c r="U61" s="8"/>
     </row>
-    <row r="62" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
@@ -3533,7 +3551,7 @@
       </c>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -3570,7 +3588,7 @@
       </c>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -3605,7 +3623,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A65" s="9" t="s">
         <v>64</v>
       </c>
@@ -3636,7 +3654,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A66" s="9" t="s">
         <v>65</v>
       </c>
@@ -3665,7 +3683,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:21" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="23" t="s">
         <v>66</v>
       </c>
@@ -3702,7 +3720,7 @@
       </c>
       <c r="U67" s="26"/>
     </row>
-    <row r="68" spans="1:21" ht="15" thickTop="1">
+    <row r="68" spans="1:21" ht="16" thickTop="1">
       <c r="A68" s="27" t="s">
         <v>67</v>
       </c>
@@ -4673,7 +4691,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="15" thickBot="1">
+    <row r="113" spans="1:21" ht="16" thickBot="1">
       <c r="A113" s="29" t="s">
         <v>111</v>
       </c>
@@ -4696,7 +4714,172 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="15" thickTop="1"/>
+    <row r="114" spans="1:21" ht="16" thickTop="1">
+      <c r="A114" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="36">
+        <f>SUM(C2:C113)</f>
+        <v>17</v>
+      </c>
+      <c r="D114" s="36">
+        <f t="shared" ref="D114:U114" si="0">SUM(D2:D113)</f>
+        <v>9350</v>
+      </c>
+      <c r="E114" s="36">
+        <f t="shared" si="0"/>
+        <v>20282</v>
+      </c>
+      <c r="F114" s="36">
+        <f t="shared" si="0"/>
+        <v>36035</v>
+      </c>
+      <c r="G114" s="36">
+        <f t="shared" si="0"/>
+        <v>47600</v>
+      </c>
+      <c r="H114" s="36">
+        <f t="shared" si="0"/>
+        <v>84199</v>
+      </c>
+      <c r="I114" s="36">
+        <f t="shared" si="0"/>
+        <v>209711</v>
+      </c>
+      <c r="J114" s="36">
+        <f t="shared" si="0"/>
+        <v>252636</v>
+      </c>
+      <c r="K114" s="36">
+        <f t="shared" si="0"/>
+        <v>352274</v>
+      </c>
+      <c r="L114" s="36">
+        <f t="shared" si="0"/>
+        <v>312386</v>
+      </c>
+      <c r="M114" s="36">
+        <f t="shared" si="0"/>
+        <v>290271</v>
+      </c>
+      <c r="N114" s="36">
+        <f t="shared" si="0"/>
+        <v>274210</v>
+      </c>
+      <c r="O114" s="36">
+        <f t="shared" si="0"/>
+        <v>284076</v>
+      </c>
+      <c r="P114" s="36">
+        <f t="shared" si="0"/>
+        <v>488047</v>
+      </c>
+      <c r="Q114" s="36">
+        <f t="shared" si="0"/>
+        <v>592231</v>
+      </c>
+      <c r="R114" s="36">
+        <f t="shared" si="0"/>
+        <v>570945</v>
+      </c>
+      <c r="S114" s="36">
+        <f t="shared" si="0"/>
+        <v>498327</v>
+      </c>
+      <c r="T114" s="36">
+        <f t="shared" si="0"/>
+        <v>506516</v>
+      </c>
+      <c r="U114" s="36">
+        <f t="shared" si="0"/>
+        <v>565930</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
+      <c r="A115" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <f>B114</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="36">
+        <f>SUM(B115+C114)</f>
+        <v>17</v>
+      </c>
+      <c r="D115" s="36">
+        <f t="shared" ref="D115:U115" si="1">SUM(C115+D114)</f>
+        <v>9367</v>
+      </c>
+      <c r="E115" s="36">
+        <f t="shared" si="1"/>
+        <v>29649</v>
+      </c>
+      <c r="F115" s="36">
+        <f t="shared" si="1"/>
+        <v>65684</v>
+      </c>
+      <c r="G115" s="36">
+        <f t="shared" si="1"/>
+        <v>113284</v>
+      </c>
+      <c r="H115" s="36">
+        <f t="shared" si="1"/>
+        <v>197483</v>
+      </c>
+      <c r="I115" s="36">
+        <f t="shared" si="1"/>
+        <v>407194</v>
+      </c>
+      <c r="J115" s="36">
+        <f t="shared" si="1"/>
+        <v>659830</v>
+      </c>
+      <c r="K115" s="36">
+        <f t="shared" si="1"/>
+        <v>1012104</v>
+      </c>
+      <c r="L115" s="36">
+        <f t="shared" si="1"/>
+        <v>1324490</v>
+      </c>
+      <c r="M115" s="36">
+        <f t="shared" si="1"/>
+        <v>1614761</v>
+      </c>
+      <c r="N115" s="36">
+        <f t="shared" si="1"/>
+        <v>1888971</v>
+      </c>
+      <c r="O115" s="36">
+        <f t="shared" si="1"/>
+        <v>2173047</v>
+      </c>
+      <c r="P115" s="36">
+        <f t="shared" si="1"/>
+        <v>2661094</v>
+      </c>
+      <c r="Q115" s="36">
+        <f t="shared" si="1"/>
+        <v>3253325</v>
+      </c>
+      <c r="R115" s="36">
+        <f t="shared" si="1"/>
+        <v>3824270</v>
+      </c>
+      <c r="S115" s="36">
+        <f t="shared" si="1"/>
+        <v>4322597</v>
+      </c>
+      <c r="T115" s="36">
+        <f t="shared" si="1"/>
+        <v>4829113</v>
+      </c>
+      <c r="U115" s="36">
+        <f t="shared" si="1"/>
+        <v>5395043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
